--- a/4-Iniciacao-Programacao-Linear/Aula-01/Avaliacao-2/Exemplo-2.xlsx
+++ b/4-Iniciacao-Programacao-Linear/Aula-01/Avaliacao-2/Exemplo-2.xlsx
@@ -8,13 +8,56 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cintia/Desktop/[UTFPR]/utfpr-emma-repo/4-Iniciacao-Programacao-Linear/Aula-01/Avaliacao-2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6ACF3FEE-DAD3-BD48-8C07-41B9EEE5DDB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C7CDB8C-E58A-144F-9673-7A0388DB7C17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11580" yWindow="7000" windowWidth="28040" windowHeight="17440" xr2:uid="{87D1F523-EB41-6444-AE37-DFC3BDDE556D}"/>
+    <workbookView xWindow="3020" yWindow="14500" windowWidth="25600" windowHeight="16120" xr2:uid="{87D1F523-EB41-6444-AE37-DFC3BDDE556D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="solver_adj" localSheetId="0" hidden="1">Sheet1!$C$6:$C$11</definedName>
+    <definedName name="solver_cvg" localSheetId="0" hidden="1">"0.0001"</definedName>
+    <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_lhs1" localSheetId="0" hidden="1">Sheet1!$C$12</definedName>
+    <definedName name="solver_lhs2" localSheetId="0" hidden="1">Sheet1!$C$6:$C$11</definedName>
+    <definedName name="solver_lhs3" localSheetId="0" hidden="1">Sheet1!$C$6:$C$11</definedName>
+    <definedName name="solver_lhs4" localSheetId="0" hidden="1">Sheet1!$G$12</definedName>
+    <definedName name="solver_lhs5" localSheetId="0" hidden="1">Sheet1!$I$12</definedName>
+    <definedName name="solver_lin" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
+    <definedName name="solver_mrt" localSheetId="0" hidden="1">"0.075"</definedName>
+    <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_num" localSheetId="0" hidden="1">5</definedName>
+    <definedName name="solver_opt" localSheetId="0" hidden="1">Sheet1!$C$21</definedName>
+    <definedName name="solver_pre" localSheetId="0" hidden="1">"0.000001"</definedName>
+    <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rel2" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel3" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_rel4" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_rel5" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rhs1" localSheetId="0" hidden="1">Sheet1!$C$13</definedName>
+    <definedName name="solver_rhs2" localSheetId="0" hidden="1">Sheet1!$D$6:$D$11</definedName>
+    <definedName name="solver_rhs3" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_rhs4" localSheetId="0" hidden="1">Sheet1!$G$13</definedName>
+    <definedName name="solver_rhs5" localSheetId="0" hidden="1">Sheet1!$I$13</definedName>
+    <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_scl" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
+    <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_tol" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_typ" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_ver" localSheetId="0" hidden="1">2</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,9 +78,96 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
+  <si>
+    <t>Valor</t>
+  </si>
+  <si>
+    <t>Máximo</t>
+  </si>
+  <si>
+    <t>Anos para o</t>
+  </si>
+  <si>
+    <t>10 anos ou mais?</t>
+  </si>
+  <si>
+    <t>Bom ou pior?</t>
+  </si>
+  <si>
+    <t>Título</t>
+  </si>
+  <si>
+    <t>Investido</t>
+  </si>
+  <si>
+    <t>Retorno</t>
+  </si>
+  <si>
+    <t>Vencimento</t>
+  </si>
+  <si>
+    <t>(1-sim, 0-não)</t>
+  </si>
+  <si>
+    <t>Classificação</t>
+  </si>
+  <si>
+    <t>ACME Chemical</t>
+  </si>
+  <si>
+    <t>1-Excelente</t>
+  </si>
+  <si>
+    <t>DynaStar</t>
+  </si>
+  <si>
+    <t>3-Bom</t>
+  </si>
+  <si>
+    <t>Eagle Vision</t>
+  </si>
+  <si>
+    <t>4-Regular</t>
+  </si>
+  <si>
+    <t>MicroModeling</t>
+  </si>
+  <si>
+    <t>OptiPro</t>
+  </si>
+  <si>
+    <t>Sabre Systems</t>
+  </si>
+  <si>
+    <t>2-Muito Bom</t>
+  </si>
+  <si>
+    <t>Total Investido:</t>
+  </si>
+  <si>
+    <t>Total:</t>
+  </si>
+  <si>
+    <t>Total Disponível:</t>
+  </si>
+  <si>
+    <t>Exigido:</t>
+  </si>
+  <si>
+    <t>Permitido:</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -45,13 +175,50 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -63,14 +230,46 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -402,12 +601,297 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45646638-09D2-0A46-9F38-D4C7CE3587DA}">
-  <dimension ref="A1"/>
+  <dimension ref="B4:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="168" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="5.6640625" style="10" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" style="10" customWidth="1"/>
+    <col min="3" max="3" width="16.1640625" style="10" customWidth="1"/>
+    <col min="4" max="4" width="17.5" style="10" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" style="10" customWidth="1"/>
+    <col min="6" max="6" width="17.83203125" style="10" customWidth="1"/>
+    <col min="7" max="7" width="18.1640625" style="10" customWidth="1"/>
+    <col min="8" max="8" width="21.1640625" style="10" customWidth="1"/>
+    <col min="9" max="9" width="22.6640625" style="10" customWidth="1"/>
+    <col min="10" max="16384" width="10.83203125" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B4" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="12"/>
+      <c r="I5" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="11">
+        <v>112500</v>
+      </c>
+      <c r="D6" s="3">
+        <f t="shared" ref="D6:D11" si="0">$D$5*$C$13</f>
+        <v>187500</v>
+      </c>
+      <c r="E6" s="4">
+        <v>8.6499999999999994E-2</v>
+      </c>
+      <c r="F6" s="2">
+        <v>11</v>
+      </c>
+      <c r="G6" s="2">
+        <v>1</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="11">
+        <v>75000</v>
+      </c>
+      <c r="D7" s="3">
+        <f t="shared" si="0"/>
+        <v>187500</v>
+      </c>
+      <c r="E7" s="4">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="F7" s="2">
+        <v>10</v>
+      </c>
+      <c r="G7" s="2">
+        <v>1</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="11">
+        <v>187500</v>
+      </c>
+      <c r="D8" s="3">
+        <f t="shared" si="0"/>
+        <v>187500</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="F8" s="2">
+        <v>6</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="11">
+        <v>187500</v>
+      </c>
+      <c r="D9" s="3">
+        <f t="shared" si="0"/>
+        <v>187500</v>
+      </c>
+      <c r="E9" s="4">
+        <v>8.7499999999999994E-2</v>
+      </c>
+      <c r="F9" s="2">
+        <v>10</v>
+      </c>
+      <c r="G9" s="2">
+        <v>1</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="11">
+        <v>0</v>
+      </c>
+      <c r="D10" s="3">
+        <f t="shared" si="0"/>
+        <v>187500</v>
+      </c>
+      <c r="E10" s="4">
+        <v>9.2499999999999999E-2</v>
+      </c>
+      <c r="F10" s="2">
+        <v>7</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="11">
+        <v>187500</v>
+      </c>
+      <c r="D11" s="3">
+        <f t="shared" si="0"/>
+        <v>187500</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0.09</v>
+      </c>
+      <c r="F11" s="2">
+        <v>13</v>
+      </c>
+      <c r="G11" s="2">
+        <v>1</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="3">
+        <f>SUM(C6:C11)</f>
+        <v>750000</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="3">
+        <f>SUMPRODUCT(E6:E11,$C$6:$C$11)</f>
+        <v>68887.5</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="3">
+        <f>SUMPRODUCT(G6:G11,$C$6:$C$11)</f>
+        <v>562500</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" s="3">
+        <f>SUMPRODUCT(I6:I11,$C$6:$C$11)</f>
+        <v>262500</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="3">
+        <v>750000</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" s="3">
+        <f>C13/2</f>
+        <v>375000</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I13" s="3">
+        <f>C13*0.35</f>
+        <v>262500</v>
+      </c>
+    </row>
+  </sheetData>
+  <scenarios current="0">
+    <scenario name="exemplo-2" count="6" user="Cintia I. Shinoda" comment="Created by Cintia I. Shinoda on 10/10/2024">
+      <inputCells r="C6" val="112500" numFmtId="165"/>
+      <inputCells r="C7" val="75000" numFmtId="165"/>
+      <inputCells r="C8" val="187500" numFmtId="165"/>
+      <inputCells r="C9" val="187500" numFmtId="165"/>
+      <inputCells r="C10" val="0" numFmtId="165"/>
+      <inputCells r="C11" val="187500" numFmtId="165"/>
+    </scenario>
+  </scenarios>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>